--- a/final data - subjects.xlsx
+++ b/final data - subjects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Master\2021-2022_1\SE\project\flask-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Master\2021-2022_1\SE\project\project-main (3)\project-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5745B61-5884-46A0-BD1E-BF2F5C21D31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1CD1A9-6EE1-4D55-AF26-DE9FE0E5BF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5513EF57-8E64-4284-A7CD-A107C854D1DC}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="23">
   <si>
     <t>SI_ID</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Advanced Statistics</t>
+  </si>
+  <si>
+    <t>Weak</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDB053D-72E8-41E7-BA1A-944C8AA6BB32}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103:I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3453,6 +3456,41 @@
       </c>
       <c r="I102">
         <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>201610111</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <f ca="1">RANDBETWEEN(50,60)</f>
+        <v>56</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ref="E103:I103" ca="1" si="0">RANDBETWEEN(50,60)</f>
+        <v>51</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="G103">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="H103">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="I103">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
